--- a/Table 1/Results.xlsx
+++ b/Table 1/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpv88\OneDrive\Documents\GitHub\Economo\spike sorting\Real Data FDR Predictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpv88\Documents\GitHub\SpikeSim\Table 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F604A48-A667-42AF-ADF0-71F63AE6D3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE193131-66DE-4500-83E4-72484D3D0F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="1560" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Author</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>Juavinett et al</t>
+  </si>
+  <si>
+    <t>final check</t>
+  </si>
+  <si>
+    <t>20 ms</t>
+  </si>
+  <si>
+    <t>10 ms</t>
+  </si>
+  <si>
+    <t>100 ms</t>
+  </si>
+  <si>
+    <t>50 ms</t>
+  </si>
+  <si>
+    <t>xu, new method</t>
+  </si>
+  <si>
+    <t>xu, old method, final choice is 50 ms</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>When you have a cue to align to and are therefore making actual PSTHs, bin size doesn't really matter</t>
+  </si>
+  <si>
+    <t>When you don't and you just make a pseudo PSTH of the whole session, bin size does have a noticeable effect</t>
   </si>
 </sst>
 </file>
@@ -103,12 +133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,21 +442,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,31 +479,35 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
       <c r="I1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.16537849957165901</v>
+        <v>0.17690414638502699</v>
       </c>
       <c r="C2">
-        <v>2.58878055775376E-3</v>
+        <v>2.6764462726307698E-3</v>
       </c>
       <c r="D2">
-        <v>5.5111121034302199E-2</v>
+        <v>6.2079271641265699E-2</v>
       </c>
       <c r="E2">
-        <v>3.24455527144029E-3</v>
+        <v>3.3544279512535201E-3</v>
       </c>
       <c r="F2">
-        <v>7967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7968</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -484,26 +526,28 @@
       <c r="F3">
         <v>3046</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.100695646952202</v>
+        <v>0.15073923526194299</v>
       </c>
       <c r="C4">
-        <v>3.7133132011129902E-3</v>
+        <v>4.61836385507751E-3</v>
       </c>
       <c r="D4">
-        <v>3.2734027912047201E-2</v>
+        <v>5.6782887133825302E-2</v>
       </c>
       <c r="E4">
-        <v>4.6539479312351804E-3</v>
+        <v>5.7882607108355596E-3</v>
       </c>
       <c r="F4">
         <v>2062</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -520,25 +564,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.116874332656645</v>
+        <v>0.125490365178583</v>
       </c>
       <c r="C5">
-        <v>4.3809333258313203E-3</v>
+        <v>4.5410322459585404E-3</v>
       </c>
       <c r="D5">
-        <v>2.7513919759242299E-2</v>
+        <v>3.1064636135157701E-2</v>
       </c>
       <c r="E5">
-        <v>5.49068567190101E-3</v>
+        <v>5.6913399118654001E-3</v>
       </c>
       <c r="F5">
         <v>1988</v>
       </c>
+      <c r="H5" s="1"/>
       <c r="I5" t="s">
         <v>10</v>
       </c>
@@ -558,27 +603,28 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.140060976133247</v>
+        <v>0.17752051434337801</v>
       </c>
       <c r="C6">
-        <v>2.3143692238380498E-3</v>
+        <v>2.6753269730736902E-3</v>
       </c>
       <c r="D6">
-        <v>1.1402032111188301E-3</v>
+        <v>1.7360218154791E-3</v>
       </c>
       <c r="E6">
-        <v>2.9006316672041299E-3</v>
+        <v>3.3530251172947398E-3</v>
       </c>
       <c r="F6">
         <v>9626</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -598,27 +644,28 @@
         <v>48661</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.16635455102697999</v>
+        <v>0.18717099201159501</v>
       </c>
       <c r="C8">
-        <v>5.5386278223358504E-3</v>
+        <v>5.8467596069448104E-3</v>
       </c>
       <c r="D8">
-        <v>3.4863778659087998E-2</v>
+        <v>4.4472673194242598E-2</v>
       </c>
       <c r="E8">
-        <v>6.9416405510624802E-3</v>
+        <v>7.32782647286915E-3</v>
       </c>
       <c r="F8">
         <v>1923</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -638,7 +685,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -658,7 +705,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -678,7 +725,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -701,7 +748,7 @@
         <v>1.33759989195706E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -722,6 +769,106 @@
       </c>
       <c r="G13">
         <v>2.3123771031542301E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>0.210736962378304</v>
+      </c>
+      <c r="P23">
+        <v>0.16415605042821199</v>
+      </c>
+      <c r="S23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23">
+        <v>0.14489506589818399</v>
+      </c>
+      <c r="U23">
+        <v>3.1899818206223098E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>0.22985983591059</v>
+      </c>
+      <c r="P24">
+        <v>0.205694534266437</v>
+      </c>
+      <c r="S24" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24">
+        <v>0.142738217588845</v>
+      </c>
+      <c r="U24">
+        <v>3.03919366967427E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25">
+        <v>0.18086258608558101</v>
+      </c>
+      <c r="P25">
+        <v>9.9831385431983694E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>0.19128951012100101</v>
+      </c>
+      <c r="P28">
+        <v>3.8760011299714199E-3</v>
+      </c>
+      <c r="Q28">
+        <v>0.12198179907228</v>
+      </c>
+      <c r="R28">
+        <v>4.8578470124440304E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Table 1/Results.xlsx
+++ b/Table 1/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpv88\Documents\GitHub\SpikeSim\Table 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE193131-66DE-4500-83E4-72484D3D0F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70443E1-7403-4233-861E-2C168CCC98DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Author</t>
   </si>
@@ -118,6 +129,81 @@
   </si>
   <si>
     <t>When you don't and you just make a pseudo PSTH of the whole session, bin size does have a noticeable effect</t>
+  </si>
+  <si>
+    <t>testing gao single pseudo-PSTH to make it line up with trial averaged PSTH</t>
+  </si>
+  <si>
+    <t>500 ms</t>
+  </si>
+  <si>
+    <t>1 s</t>
+  </si>
+  <si>
+    <t>2 s</t>
+  </si>
+  <si>
+    <t>3 s</t>
+  </si>
+  <si>
+    <t>10 s</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>homogeneous predictions</t>
+  </si>
+  <si>
+    <t>gao</t>
+  </si>
+  <si>
+    <t>guo</t>
+  </si>
+  <si>
+    <t>economo</t>
+  </si>
+  <si>
+    <t>xu</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>inagaki 2019</t>
+  </si>
+  <si>
+    <t>inagaki 2022</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>homogeneous</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>Chinta et al</t>
+  </si>
+  <si>
+    <t>Sargolini et al</t>
+  </si>
+  <si>
+    <t>Sylwestrak et al</t>
+  </si>
+  <si>
+    <t>Finkelstein et al</t>
   </si>
 </sst>
 </file>
@@ -442,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,9 +541,10 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,10 +570,13 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +597,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -528,7 +618,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -548,23 +638,23 @@
         <v>2062</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -584,26 +674,26 @@
         <v>1988</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>7.8215519692773405E-2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.2371151393637101E-2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.9765571075168101E-3</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.55049389365158E-2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -624,27 +714,28 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.29182620851636298</v>
+        <v>0.27992930720030101</v>
       </c>
       <c r="C7">
-        <v>1.4640780946497201E-3</v>
+        <v>1.4568578497077601E-3</v>
       </c>
       <c r="D7">
-        <v>0.100714907516275</v>
+        <v>6.9224578232920095E-2</v>
       </c>
       <c r="E7">
-        <v>1.8349497741584301E-3</v>
+        <v>1.8259005390977999E-3</v>
       </c>
       <c r="F7">
         <v>48661</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -665,81 +756,84 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.14434119881492199</v>
+        <v>0.18831953386959299</v>
       </c>
       <c r="C9">
-        <v>5.0080329698176402E-3</v>
+        <v>5.6909740054189098E-3</v>
       </c>
       <c r="D9">
-        <v>4.17432047088164E-2</v>
+        <v>6.5486736733130393E-2</v>
       </c>
       <c r="E9">
-        <v>6.2766385212145804E-3</v>
+        <v>7.13257817608654E-3</v>
       </c>
       <c r="F9">
         <v>1936</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.15338648349386799</v>
+        <v>0.19680574832681599</v>
       </c>
       <c r="C10">
-        <v>5.9563589583161297E-3</v>
+        <v>6.7575419554381398E-3</v>
       </c>
       <c r="D10">
-        <v>2.9383957849169098E-2</v>
+        <v>4.5356462262302097E-2</v>
       </c>
       <c r="E10">
-        <v>7.46518888938343E-3</v>
+        <v>8.4693228662532493E-3</v>
       </c>
       <c r="F10">
         <v>1543</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.48408006057805802</v>
+        <v>0.64859974540447296</v>
       </c>
       <c r="C11">
-        <v>7.9890411794825405E-3</v>
+        <v>7.1895761493585997E-3</v>
       </c>
       <c r="D11">
-        <v>0.511640179830677</v>
+        <v>0.75</v>
       </c>
       <c r="E11">
-        <v>1.0012778253841099E-2</v>
+        <v>9.01079742929747E-3</v>
       </c>
       <c r="F11">
         <v>958</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.33368974176654997</v>
+        <v>0.33098200139036599</v>
       </c>
       <c r="C12">
-        <v>3.71756342796413E-3</v>
+        <v>3.72917877390604E-3</v>
       </c>
       <c r="D12">
-        <v>0.23248775149532899</v>
+        <v>0.21903669201477899</v>
       </c>
       <c r="E12">
-        <v>4.6592748006345202E-3</v>
+        <v>4.6738324779133202E-3</v>
       </c>
       <c r="F12">
         <v>6446</v>
@@ -747,22 +841,26 @@
       <c r="G12">
         <v>1.33759989195706E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.45373134447173502</v>
+        <v>0.45387506424556301</v>
       </c>
       <c r="C13">
-        <v>6.37245128599129E-3</v>
+        <v>6.3770151405835602E-3</v>
       </c>
       <c r="D13">
-        <v>0.52656934782311604</v>
+        <v>0.52873876229420103</v>
       </c>
       <c r="E13">
-        <v>7.9866832860872299E-3</v>
+        <v>7.9924032295683595E-3</v>
       </c>
       <c r="F13">
         <v>2256</v>
@@ -770,18 +868,105 @@
       <c r="G13">
         <v>2.3123771031542301E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>0.36212908339703398</v>
+      </c>
+      <c r="C14">
+        <v>1.0395374433976499E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.28174174070878699</v>
+      </c>
+      <c r="E14">
+        <v>1.3028669740790901E-2</v>
+      </c>
+      <c r="F14">
+        <v>991</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0.33726855341901502</v>
+      </c>
+      <c r="C15">
+        <v>1.3193714742613501E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.21167461661388501</v>
+      </c>
+      <c r="E15">
+        <v>1.6535869210625401E-2</v>
+      </c>
+      <c r="F15">
+        <v>620</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>0.29088074478534298</v>
+      </c>
+      <c r="C16">
+        <v>3.0307189530040701E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.12791319659937</v>
+      </c>
+      <c r="E16">
+        <v>3.79844291003004E-3</v>
+      </c>
+      <c r="F16">
+        <v>10548</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="N16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0.32869079915591798</v>
+      </c>
+      <c r="C17">
+        <v>4.0394288539917301E-3</v>
+      </c>
+      <c r="D17">
+        <v>0.23335368007343399</v>
+      </c>
+      <c r="E17">
+        <v>5.0626732893879799E-3</v>
+      </c>
+      <c r="F17">
+        <v>5164</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="N17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
         <v>26</v>
       </c>
@@ -789,7 +974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O22" t="s">
         <v>28</v>
       </c>
@@ -803,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
         <v>22</v>
       </c>
@@ -823,7 +1008,7 @@
         <v>3.1899818206223098E-2</v>
       </c>
     </row>
-    <row r="24" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N24" t="s">
         <v>23</v>
       </c>
@@ -843,7 +1028,7 @@
         <v>3.03919366967427E-2</v>
       </c>
     </row>
-    <row r="25" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N25" t="s">
         <v>24</v>
       </c>
@@ -854,7 +1039,7 @@
         <v>9.9831385431983694E-2</v>
       </c>
     </row>
-    <row r="28" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
         <v>25</v>
       </c>
@@ -869,6 +1054,243 @@
       </c>
       <c r="R28">
         <v>4.8578470124440304E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <v>0.25213287917246802</v>
+      </c>
+      <c r="P34">
+        <v>0.21204868838265001</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35">
+        <v>0.242405066352717</v>
+      </c>
+      <c r="P35">
+        <v>0.18865614732574201</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36">
+        <v>0.22983099569249901</v>
+      </c>
+      <c r="P36">
+        <v>0.15467078182558799</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37">
+        <v>0.22543633567282201</v>
+      </c>
+      <c r="P37">
+        <v>0.13859868521202801</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38">
+        <v>0.22094235140902599</v>
+      </c>
+      <c r="P38">
+        <v>0.124714093028052</v>
+      </c>
+    </row>
+    <row r="39" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39">
+        <v>0.218216003740408</v>
+      </c>
+      <c r="P39">
+        <v>0.114702958159518</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40">
+        <v>0.21461548336125799</v>
+      </c>
+      <c r="P40">
+        <v>9.5703943373278394E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41">
+        <v>0.207517367167354</v>
+      </c>
+      <c r="P41">
+        <v>8.0917546324133199E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>38</v>
+      </c>
+      <c r="O42">
+        <v>0.197334887332904</v>
+      </c>
+      <c r="P42">
+        <v>7.0768354640534201E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47">
+        <v>0.15418926877981201</v>
+      </c>
+      <c r="P47">
+        <v>4.4248755017455003E-2</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48">
+        <v>0.15598613200561201</v>
+      </c>
+      <c r="P48">
+        <v>5.67441954619161E-2</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49">
+        <v>0.11673290789622701</v>
+      </c>
+      <c r="P49">
+        <v>2.7030313867189501E-2</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>43</v>
+      </c>
+      <c r="O50">
+        <v>0.171544104750289</v>
+      </c>
+      <c r="P50">
+        <v>4.8016890592565899E-2</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>46</v>
+      </c>
+      <c r="O51">
+        <v>0.14436412971267901</v>
+      </c>
+      <c r="P51">
+        <v>5.4095427623646698E-2</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52">
+        <v>0.16841640515012701</v>
+      </c>
+      <c r="P52">
+        <v>5.2088160323697001E-2</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53">
+        <v>0.297881162716162</v>
+      </c>
+      <c r="P53">
+        <v>0.15508943768261699</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54">
+        <v>0.16905915877861399</v>
+      </c>
+      <c r="P54">
+        <v>1.6863373968208199E-3</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Table 1/Results.xlsx
+++ b/Table 1/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpv88\Documents\GitHub\SpikeSim\Table 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70443E1-7403-4233-861E-2C168CCC98DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BD97A-0425-4848-B3D4-241743EA3561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>Author</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>Finkelstein et al</t>
+  </si>
+  <si>
+    <t>RECHECK (remove multis)</t>
+  </si>
+  <si>
+    <t>excluded?</t>
+  </si>
+  <si>
+    <t>ya, 'multi' under "quality"</t>
+  </si>
+  <si>
+    <t>ya, units labeled 1 for MUA in phy</t>
   </si>
 </sst>
 </file>
@@ -531,7 +543,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +552,8 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -966,7 +979,63 @@
         <v>30</v>
       </c>
     </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.17690414638502699</v>
+      </c>
+      <c r="C21">
+        <v>2.6764462726307698E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.2079271641265699E-2</v>
+      </c>
+      <c r="E21">
+        <v>3.3544279512535201E-3</v>
+      </c>
+      <c r="F21">
+        <v>7968</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="N21" t="s">
         <v>26</v>
       </c>
@@ -975,6 +1044,25 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0.14321115667110501</v>
+      </c>
+      <c r="C22">
+        <v>4.2267082718197698E-3</v>
+      </c>
+      <c r="D22">
+        <v>3.0804412957681201E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.2973932313800896E-3</v>
+      </c>
+      <c r="F22">
+        <v>3046</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="O22" t="s">
         <v>28</v>
       </c>
@@ -989,6 +1077,25 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0.125490365178583</v>
+      </c>
+      <c r="C23">
+        <v>4.5410322459585404E-3</v>
+      </c>
+      <c r="D23">
+        <v>3.1064636135157701E-2</v>
+      </c>
+      <c r="E23">
+        <v>5.6913399118654001E-3</v>
+      </c>
+      <c r="F23">
+        <v>1988</v>
+      </c>
+      <c r="H23" s="1"/>
       <c r="N23" t="s">
         <v>22</v>
       </c>
@@ -1009,6 +1116,28 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>0.25143668047630202</v>
+      </c>
+      <c r="C24">
+        <v>1.6891318706506199E-3</v>
+      </c>
+      <c r="D24">
+        <v>3.9561158475684602E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.1170128532766001E-3</v>
+      </c>
+      <c r="F24">
+        <v>33997</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
       <c r="N24" t="s">
         <v>23</v>
       </c>
@@ -1029,6 +1158,25 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0.18717099201159501</v>
+      </c>
+      <c r="C25">
+        <v>5.8467596069448104E-3</v>
+      </c>
+      <c r="D25">
+        <v>4.4472673194242598E-2</v>
+      </c>
+      <c r="E25">
+        <v>7.32782647286915E-3</v>
+      </c>
+      <c r="F25">
+        <v>1923</v>
+      </c>
+      <c r="H25" s="1"/>
       <c r="N25" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1187,74 @@
         <v>9.9831385431983694E-2</v>
       </c>
     </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>0.18831953386959299</v>
+      </c>
+      <c r="C26">
+        <v>5.6909740054189098E-3</v>
+      </c>
+      <c r="D26">
+        <v>6.5486736733130393E-2</v>
+      </c>
+      <c r="E26">
+        <v>7.13257817608654E-3</v>
+      </c>
+      <c r="F26">
+        <v>1936</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>0.19680574832681599</v>
+      </c>
+      <c r="C27">
+        <v>6.7575419554381398E-3</v>
+      </c>
+      <c r="D27">
+        <v>4.5356462262302097E-2</v>
+      </c>
+      <c r="E27">
+        <v>8.4693228662532493E-3</v>
+      </c>
+      <c r="F27">
+        <v>1543</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>0.33098200139036599</v>
+      </c>
+      <c r="C28">
+        <v>3.72917877390604E-3</v>
+      </c>
+      <c r="D28">
+        <v>0.21903669201477899</v>
+      </c>
+      <c r="E28">
+        <v>4.6738324779133202E-3</v>
+      </c>
+      <c r="F28">
+        <v>6446</v>
+      </c>
+      <c r="G28">
+        <v>1.33759989195706E-2</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
       <c r="N28" t="s">
         <v>25</v>
       </c>
@@ -1056,9 +1271,100 @@
         <v>4.8578470124440304E-3</v>
       </c>
     </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>0.44279370292723502</v>
+      </c>
+      <c r="C29">
+        <v>6.7726166931549999E-3</v>
+      </c>
+      <c r="D29">
+        <v>0.50046897611165497</v>
+      </c>
+      <c r="E29">
+        <v>8.4882162481501097E-3</v>
+      </c>
+      <c r="F29">
+        <v>2018</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>0.36212908339703398</v>
+      </c>
+      <c r="C30">
+        <v>1.0395374433976499E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.28174174070878699</v>
+      </c>
+      <c r="E30">
+        <v>1.3028669740790901E-2</v>
+      </c>
+      <c r="F30">
+        <v>991</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>0.29088074478534298</v>
+      </c>
+      <c r="C31">
+        <v>3.0307189530040701E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.12791319659937</v>
+      </c>
+      <c r="E31">
+        <v>3.79844291003004E-3</v>
+      </c>
+      <c r="F31">
+        <v>10548</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="N31" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>0.200620117011758</v>
+      </c>
+      <c r="C32">
+        <v>3.9313756009823099E-3</v>
+      </c>
+      <c r="D32">
+        <v>0.104952885431585</v>
+      </c>
+      <c r="E32">
+        <v>4.92724861980835E-3</v>
+      </c>
+      <c r="F32">
+        <v>3385</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="J32" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="14:17" x14ac:dyDescent="0.25">
